--- a/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/additive/ranking_test1/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.279</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.876</v>
+        <v>19.72</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.141</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.32</v>
+        <v>22.47</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.972</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.54</v>
+        <v>17.353</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31.2822124326565</v>
+        <v>-6.580035955430667</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31.2795290381704</v>
+        <v>21.9540017530805</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.330142678466</v>
+        <v>28.1631666764011</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>31.20819182346158</v>
+        <v>-2.509027036114666</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>31.29048032004722</v>
+        <v>16.11434719863139</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31.28941108519138</v>
+        <v>21.45620838613599</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>31.23005783486223</v>
+        <v>10.22877239974725</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.35764247965875</v>
+        <v>25.05253700040618</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31.36568960567971</v>
+        <v>30.53226658354658</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.28002348271822</v>
+        <v>30.03814665516729</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.30057567910458</v>
+        <v>37.92206186223991</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.29709434458898</v>
+        <v>41.91856106974837</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31.33489138978126</v>
+        <v>9.148010602605787</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.30048824035535</v>
+        <v>30.91585833268068</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.42019576729827</v>
+        <v>38.88124986764814</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>31.23151327170112</v>
+        <v>-1.952806012807905</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.33547174717785</v>
+        <v>26.58574971942318</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.33888899576521</v>
+        <v>32.7969192702546</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>31.20676223345945</v>
+        <v>2.109916588264987</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.24691366789704</v>
+        <v>20.73763439567501</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.25922296446032</v>
+        <v>26.08127374948658</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>31.2157074810525</v>
+        <v>14.85206411181566</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.30957110478462</v>
+        <v>29.68007519735529</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>31.26708118385287</v>
+        <v>3.405075884348271</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.2683240279728</v>
+        <v>31.94008166319561</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.31238712770506</v>
+        <v>38.14911089069626</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>31.20454809729965</v>
+        <v>7.477848815462217</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31.34443344713934</v>
+        <v>26.1021308728777</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.34995882031362</v>
+        <v>31.4438247994271</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>31.21404417758525</v>
+        <v>20.21642250935776</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.39409551463454</v>
+        <v>35.04095623888629</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>31.39690472238504</v>
+        <v>40.52053426126947</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>31.42035122944034</v>
+        <v>40.02716880138616</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>31.46676926413351</v>
+        <v>47.91120288893757</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>31.45250906388251</v>
+        <v>51.90767594949632</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>31.3773377135997</v>
+        <v>19.13606214640249</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.45922606613298</v>
+        <v>40.90496097819307</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.47464212549607</v>
+        <v>48.8701624960458</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>31.27848305092945</v>
+        <v>8.034332983305553</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.35166213926899</v>
+        <v>36.57385685748938</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>31.36562277577005</v>
+        <v>42.78489076237947</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>31.1996138642615</v>
+        <v>12.09881978322034</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.32794007456469</v>
+        <v>30.7274454850653</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>31.35196044723444</v>
+        <v>36.07091762841703</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>31.19919662533701</v>
+        <v>24.84174174718584</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>31.4389454015109</v>
+        <v>39.67052202732106</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.25025786017934</v>
+        <v>7.171733616557113</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.27476082114224</v>
+        <v>35.70702020366816</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>31.31622296000663</v>
+        <v>41.91610561552427</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31.19500194884847</v>
+        <v>11.24542099635659</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.32168945172987</v>
+        <v>29.87002991147273</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>31.33872525271507</v>
+        <v>35.2117822437428</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>31.22056159148659</v>
+        <v>23.98408260756032</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.39507908449194</v>
+        <v>38.80891183165563</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.41605460386968</v>
+        <v>44.2885417007903</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>31.43495371369145</v>
+        <v>43.79517882697605</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>31.43666914262479</v>
+        <v>51.67923417982315</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>31.48893530842101</v>
+        <v>55.67577437062545</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.25607727417952</v>
+        <v>22.90370280124484</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.36385197894467</v>
+        <v>44.67301043249467</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>31.44699829480704</v>
+        <v>52.63826435984897</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.24474339995413</v>
+        <v>11.80172271914507</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>31.3386634245179</v>
+        <v>40.34152741675798</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>31.36104847731576</v>
+        <v>46.5526175201448</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.20356681839234</v>
+        <v>15.86712406832959</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.30904341652679</v>
+        <v>34.49607664860964</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>31.36047371873271</v>
+        <v>39.83960720952752</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>31.21123416531527</v>
+        <v>28.61013399015582</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>31.41154272173478</v>
+        <v>43.43920977823286</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>31.22667453601493</v>
+        <v>-1.323492471995728</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>31.24102235440922</v>
+        <v>27.21113989433145</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.2820554419435</v>
+        <v>33.42052239072331</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>31.16966541352046</v>
+        <v>2.74914915538313</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31.29296284320899</v>
+        <v>21.37316612268575</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>31.32756933818968</v>
+        <v>26.71525078866313</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>31.17002715341392</v>
+        <v>15.48701924474285</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>31.31707472636477</v>
+        <v>30.31136454904578</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>31.37841226396108</v>
+        <v>35.79130043197319</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>31.35158089411873</v>
+        <v>35.29701614974926</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>31.36782887631939</v>
+        <v>43.18100412286373</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>31.40737159511866</v>
+        <v>47.17770216240121</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>31.2084621825399</v>
+        <v>14.40613327579349</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31.29196580912073</v>
+        <v>36.17480169653863</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>31.44920298307148</v>
+        <v>44.14042952205654</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>31.23721671362979</v>
+        <v>3.304866212251405</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.32086612193253</v>
+        <v>31.84401664948297</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>31.35055713358181</v>
+        <v>38.05540381058376</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>31.20238327613187</v>
+        <v>7.369221633115735</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>31.29759708216346</v>
+        <v>25.99758223205192</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>31.34919174131478</v>
+        <v>31.34144509450829</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>31.19239718137536</v>
+        <v>20.11143988372425</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.37520175900943</v>
+        <v>34.94003171620495</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.31551835550392</v>
+        <v>35.16127057961325</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>31.28387997474956</v>
+        <v>34.66786237931553</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>31.33924446792209</v>
+        <v>42.55454286000765</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>31.35693760417731</v>
+        <v>46.55259605858311</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>31.23540934204328</v>
+        <v>13.77651790625334</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>31.27959436346679</v>
+        <v>35.55248616602746</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.30974367490709</v>
+        <v>43.51800103916759</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>31.2804751547233</v>
+        <v>8.709735374353905</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.33410382953493</v>
+        <v>37.2507963371682</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>31.36328464910218</v>
+        <v>43.46247129620389</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>31.20644213359674</v>
+        <v>12.77695018823199</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.23984429805344</v>
+        <v>31.40741657001531</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>31.26144564914319</v>
+        <v>36.7515639806664</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>31.21732984090675</v>
+        <v>25.52244430888147</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.31239142762948</v>
+        <v>40.35269964571075</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>31.39626754608638</v>
+        <v>45.83459579183575</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>31.32537680889523</v>
+        <v>45.34642771543628</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.39892384149338</v>
+        <v>53.23417558627211</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>31.41883382594836</v>
+        <v>57.23255993988921</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>31.24237047860068</v>
+        <v>24.45081985507256</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>31.30394777577396</v>
+        <v>46.23009587067754</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>31.34024195313426</v>
+        <v>54.19650342960239</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>31.4443525788903</v>
+        <v>45.15156589716123</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>31.42548749364789</v>
+        <v>44.65891207212434</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>31.4700404247819</v>
+        <v>52.54571140015248</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>31.46761000290949</v>
+        <v>56.54373846022447</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>31.28441866151234</v>
+        <v>23.76659694638699</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>31.45622073228761</v>
+        <v>45.54361643440536</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.46291696448728</v>
+        <v>53.50894131635579</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>31.34146513707165</v>
+        <v>18.69849315899757</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>31.38785661124457</v>
+        <v>47.24052228479133</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>31.41423711881872</v>
+        <v>53.45206156243007</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>31.21993261759734</v>
+        <v>22.76747237248782</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>31.40157142708878</v>
+        <v>41.39884666291875</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>31.42812514971674</v>
+        <v>46.74282683248106</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>31.25479374983556</v>
+        <v>35.51374100053778</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>31.53633835136047</v>
+        <v>50.34476554564419</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>31.55168524721936</v>
+        <v>55.82651015018468</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>31.58464378455049</v>
+        <v>55.33909651608469</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>31.61013794613873</v>
+        <v>63.22696323717464</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>31.62250239600475</v>
+        <v>67.22532145222357</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.4056695099238</v>
+        <v>34.44251798977695</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>31.59442896429844</v>
+        <v>56.22284523749915</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>31.61239140716875</v>
+        <v>64.18906279041613</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>31.48594350259961</v>
+        <v>48.92030551089142</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>31.38654668217844</v>
+        <v>48.42765415358458</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>31.44511258650139</v>
+        <v>56.3144747272084</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>31.47334782859236</v>
+        <v>60.31256891854657</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>31.2437513614124</v>
+        <v>27.53496969886493</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>31.44057094527355</v>
+        <v>49.31239799915199</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>31.4695605740681</v>
+        <v>57.27777530512169</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.27344904026334</v>
+        <v>22.46682784117713</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>31.3711432926762</v>
+        <v>51.00913780279945</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.40221250379273</v>
+        <v>57.22073325773381</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.21407403983882</v>
+        <v>26.53672167783811</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>31.40099226649457</v>
+        <v>45.1684228573468</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>31.42222349275558</v>
+        <v>50.51246142653094</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.24755507140329</v>
+        <v>39.28307829291141</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>31.51781859579609</v>
+        <v>54.11439835974461</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>31.57396133369098</v>
+        <v>59.59619480620047</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.58156882273005</v>
+        <v>59.1087836518546</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>31.62007662526546</v>
+        <v>66.99667161271515</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>31.66478153827967</v>
+        <v>70.99509695803232</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.29168231020182</v>
+        <v>38.21183576435175</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.57822759485086</v>
+        <v>59.99257183280162</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>31.63701563119553</v>
+        <v>67.95884179642911</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.43929401678306</v>
+        <v>40.4214334350657</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.29144584096501</v>
+        <v>39.9278606417376</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.33645114705089</v>
+        <v>47.81461387268343</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>31.37708529324944</v>
+        <v>51.81286591716407</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>31.20328236859877</v>
+        <v>19.03576945059633</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>31.38425847048115</v>
+        <v>40.81255845612413</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.4227175764786</v>
+        <v>48.77830964955007</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.25899166594114</v>
+        <v>13.96921939914052</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>31.36430085426568</v>
+        <v>42.5108751093614</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>31.40756972597923</v>
+        <v>48.72276764174814</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>31.21362960017794</v>
+        <v>18.03806718371136</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.39204877949833</v>
+        <v>36.66917639887556</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>31.42550737114424</v>
+        <v>42.01354728750659</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>31.21870189663845</v>
+        <v>30.78363210669631</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>31.50076017970657</v>
+        <v>45.61446823599039</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>31.55861682492609</v>
+        <v>51.09657068320684</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>31.5133813492842</v>
+        <v>50.60823806389914</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>31.56044905539911</v>
+        <v>58.49605867955649</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>31.6373277925526</v>
+        <v>62.49464187813835</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>31.24887463739626</v>
+        <v>29.71188338216411</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>31.5214838533839</v>
+        <v>51.49198018799161</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>31.6054181546131</v>
+        <v>59.45862404592635</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>27.79725477821383</v>
+        <v>-12.68769917508444</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.23194508914507</v>
+        <v>15.84506539469289</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.06838381963133</v>
+        <v>22.05412175187207</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.50882723162293</v>
+        <v>-8.619471827413513</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.57471069872864</v>
+        <v>10.00285545988351</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>30.23435367620852</v>
+        <v>15.34459715267059</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>26.56096771808226</v>
+        <v>4.118498312500556</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>35.13421414022404</v>
+        <v>18.94130782358167</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35.51705949421648</v>
+        <v>24.42094835019606</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>27.33936223173987</v>
+        <v>23.92562015820608</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.22531087386275</v>
+        <v>31.80922101060498</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>27.99406970195852</v>
+        <v>35.80559225296469</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.04140339864036</v>
+        <v>3.035570521015593</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.12298274258798</v>
+        <v>24.8023581247847</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.77157633309057</v>
+        <v>32.7672811632287</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27.42500038623326</v>
+        <v>-8.057182763761766</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31.58169471294262</v>
+        <v>20.48009986153256</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>31.35675380169874</v>
+        <v>26.69116090287304</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.54971151230356</v>
+        <v>-3.997241222216466</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.38468239066115</v>
+        <v>14.62942966013185</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.37625771851595</v>
+        <v>19.97294956745186</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>25.90809237975278</v>
+        <v>8.745077353926099</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>31.99201315986351</v>
+        <v>23.57213329384178</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.65680687575567</v>
+        <v>-2.703336367410934</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>31.93009786319136</v>
+        <v>25.83039624910084</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31.83560645125686</v>
+        <v>32.03931692391343</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>25.6255540045909</v>
+        <v>1.366654897503913</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>32.73437452401382</v>
+        <v>19.98988998737327</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.02225287217945</v>
+        <v>25.33146443359369</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>26.3717214491268</v>
+        <v>14.10539925502207</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>37.42717643517715</v>
+        <v>28.92897787312013</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>36.39864344574828</v>
+        <v>34.40846685227252</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>35.29501833673172</v>
+        <v>33.91389309908124</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.19277669477206</v>
+        <v>41.79761283787986</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>37.08204969252036</v>
+        <v>45.7939579346151</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>30.4455801898852</v>
+        <v>13.0228728947505</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.21493637060207</v>
+        <v>34.79071158139227</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>31.66052000820507</v>
+        <v>42.75544461603869</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.77519758436829</v>
+        <v>1.929207114705896</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>32.84858051185389</v>
+        <v>30.46745785825744</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.08089524301143</v>
+        <v>36.67838326727401</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25.33525943076728</v>
+        <v>5.990912760367287</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.49952346898773</v>
+        <v>24.61849151671124</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>32.57955529791607</v>
+        <v>29.96184422781898</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.71604092708515</v>
+        <v>18.73400573599606</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>37.21196504297711</v>
+        <v>33.56183084892047</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.50817161071848</v>
+        <v>1.063031770573566</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.83077981376075</v>
+        <v>29.59704519085989</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.99100415068807</v>
+        <v>35.80602204564236</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.37737524962185</v>
+        <v>5.133937451513994</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>32.14822969334364</v>
+        <v>23.75749939361499</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>31.58556449565461</v>
+        <v>29.09913224053737</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>26.79081021461529</v>
+        <v>17.87276970666955</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>36.68164219352199</v>
+        <v>32.69664381294246</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>37.35298094052342</v>
+        <v>38.1761846347443</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>37.88552673886961</v>
+        <v>37.68161348291898</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>40.27694672345157</v>
+        <v>45.56535448558402</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>41.28071322222649</v>
+        <v>49.56176671133273</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>27.09099543317085</v>
+        <v>16.79022392057318</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.26967799051874</v>
+        <v>38.55847140275905</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>30.89823905495188</v>
+        <v>46.52325684208035</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.03718561640883</v>
+        <v>5.696307184622988</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.42440112249274</v>
+        <v>34.23483874708956</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.85449241610765</v>
+        <v>40.44582035000798</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>25.38177955231597</v>
+        <v>9.758927346904734</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>31.79409452115265</v>
+        <v>28.38683297658742</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>33.01483044787426</v>
+        <v>33.73024410036073</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>25.65078813507252</v>
+        <v>22.50210826069651</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>37.3019742709613</v>
+        <v>37.33022887520344</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>26.06082917466409</v>
+        <v>-7.431644091835601</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>27.35801024012281</v>
+        <v>21.10171512303607</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.19330459360261</v>
+        <v>27.31098903828201</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>24.94936099896507</v>
+        <v>-3.361784107076964</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>32.53857833516906</v>
+        <v>15.26118589908112</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>33.77144914179812</v>
+        <v>20.60315105396644</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>25.178182467014</v>
+        <v>9.376256653695528</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>37.07855220802119</v>
+        <v>24.19964685357474</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>37.94408136467899</v>
+        <v>29.67949366583486</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>37.10874400237574</v>
+        <v>29.18400115202162</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>38.65037477015525</v>
+        <v>37.06767476363775</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>39.92787196764455</v>
+        <v>41.0642448342432</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>26.05533179609848</v>
+        <v>8.293204712810002</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>27.81773092535354</v>
+        <v>30.06081299639499</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>30.87981764779851</v>
+        <v>38.02597230643148</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>27.35650691398981</v>
+        <v>-2.799999054397453</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31.8046034982372</v>
+        <v>25.7378782626974</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.78174096970095</v>
+        <v>31.94915689955855</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.43085680898727</v>
+        <v>1.261575236019617</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>31.14981323464321</v>
+        <v>19.88888889618608</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>32.92275909019454</v>
+        <v>25.23263229581568</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>25.3620940313161</v>
+        <v>14.00396450636874</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.04051969581</v>
+        <v>28.83160117844006</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>32.10099190708514</v>
+        <v>29.05323970833849</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>30.47204897797936</v>
+        <v>28.55862292502258</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.42336934899868</v>
+        <v>36.44498906619476</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>34.05131113607021</v>
+        <v>40.44291433576706</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.60880527248762</v>
+        <v>7.667364974566631</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.67541246392825</v>
+        <v>29.44227296278741</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>32.15269123871611</v>
+        <v>37.40731956885629</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.23385068629775</v>
+        <v>2.607650850844216</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>31.87233848294584</v>
+        <v>31.14743870770435</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>32.7768342088464</v>
+        <v>37.35900525604092</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.52934344306253</v>
+        <v>6.672084198035186</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.61033611657223</v>
+        <v>25.30150366723178</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.77512027600427</v>
+        <v>30.64553173122267</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>25.94435846940279</v>
+        <v>19.41774951064173</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>31.19629911546551</v>
+        <v>34.24704974645142</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.61259935859378</v>
+        <v>39.72885699329897</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>31.71461715150509</v>
+        <v>39.23947989449807</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>35.44248991043934</v>
+        <v>47.12691341466888</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>36.45126458769437</v>
+        <v>51.12516986149735</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>27.37519620775651</v>
+        <v>18.34395853911696</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>30.71397814441896</v>
+        <v>40.1221742825814</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>32.51471640989965</v>
+        <v>48.08811358953989</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>37.38515989984751</v>
+        <v>39.04278576441352</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>37.02092239734809</v>
+        <v>38.54892332672132</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>38.88510480330626</v>
+        <v>46.43540832151525</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>39.03538765937863</v>
+        <v>50.4333074536026</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>30.71668354483565</v>
+        <v>17.65669475880163</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>38.53330541314723</v>
+        <v>39.43265395651924</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>38.66029591329968</v>
+        <v>47.39751058460769</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>30.9632716810686</v>
+        <v>12.59565956878607</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>32.53305577627876</v>
+        <v>41.13641556520424</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>33.33044350779605</v>
+        <v>47.3478464457183</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>25.75730793975384</v>
+        <v>16.66185722176971</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.72081711020563</v>
+        <v>35.29218457918098</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>34.52898668591695</v>
+        <v>40.63604541629417</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>26.64598240558008</v>
+        <v>29.40829700101705</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>39.29348644181822</v>
+        <v>44.23836642330668</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>39.64109815605103</v>
+        <v>49.72002214183937</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>41.15022112305894</v>
+        <v>49.23139945557029</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>42.06238957792095</v>
+        <v>57.11895183216536</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>42.12113538805662</v>
+        <v>61.11718214154946</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32.89814853220448</v>
+        <v>28.33490746958939</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>41.78559870420888</v>
+        <v>50.11417442635963</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>42.12232347877394</v>
+        <v>58.07992374059524</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>38.33950865191244</v>
+        <v>42.81123564921308</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>35.34065122989317</v>
+        <v>42.31737569463116</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>37.79622848973607</v>
+        <v>50.20388193363767</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>39.31751185486042</v>
+        <v>54.20184819602486</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.19320417145016</v>
+        <v>21.42477781068266</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>37.96722010203037</v>
+        <v>43.20114581673585</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.49378189382278</v>
+        <v>51.16605486401688</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.6685604892241</v>
+        <v>16.36370457909545</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.13003864809814</v>
+        <v>44.9047414065031</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>33.26916882928422</v>
+        <v>51.1162284598816</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>25.69074322839416</v>
+        <v>20.43081682180838</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>33.78148324987798</v>
+        <v>39.06147106283465</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>33.87216996234014</v>
+        <v>44.40539029469921</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>26.78076899765022</v>
+        <v>33.17734456840521</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>39.45956425831024</v>
+        <v>48.00770950589953</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>39.84462075269944</v>
+        <v>53.48941706245314</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>41.92776053845671</v>
+        <v>53.00079687114368</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>42.92272833789943</v>
+        <v>60.88837048625835</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>43.77070037589648</v>
+        <v>64.88666792476494</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.28563358953409</v>
+        <v>32.10393553681622</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>42.07725861483102</v>
+        <v>53.88361131016911</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>42.72709282368223</v>
+        <v>61.84941303005662</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>38.05977006324049</v>
+        <v>34.31291391550992</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>31.78837236803075</v>
+        <v>33.81813257130882</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>34.32330052601642</v>
+        <v>41.70457145604252</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>36.50229496487978</v>
+        <v>45.70269556769615</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>27.14510031639049</v>
+        <v>12.92612792230222</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>37.70782883204456</v>
+        <v>34.70185664526839</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>38.81160583333567</v>
+        <v>42.6671395525653</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.12851090013119</v>
+        <v>7.866646346184844</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.03965569034506</v>
+        <v>36.40702893746784</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.18888909882374</v>
+        <v>42.61881304428659</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.68488094377624</v>
+        <v>11.93271259363502</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>33.54083165363216</v>
+        <v>30.56277488216717</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>34.30901615556402</v>
+        <v>35.9070264078867</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>25.81838954472778</v>
+        <v>24.67844867568653</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>39.23436574818961</v>
+        <v>39.50832968892411</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>40.04276742477251</v>
+        <v>44.9903432228619</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>39.75788828477814</v>
+        <v>44.50080161313844</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>41.36345426957374</v>
+        <v>52.38830787132037</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>42.74443811001608</v>
+        <v>56.38676315918287</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>27.62986918376917</v>
+        <v>23.6045334561182</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>39.81359766149353</v>
+        <v>45.38356997859075</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>42.12781527492854</v>
+        <v>53.3497455654586</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.12200800391934</v>
+        <v>-4.068825104241505</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.21334936239553</v>
+        <v>24.46535198742533</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>30.55780248534935</v>
+        <v>30.67423877757717</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.83737454202014</v>
+        <v>0.001811974568632024</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.92806647424788</v>
+        <v>18.62540415692713</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.19037954563962</v>
+        <v>23.96696851368478</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.64199642228057</v>
+        <v>12.73995743053326</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>32.68964113071998</v>
+        <v>27.5639374992332</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>33.20558478116325</v>
+        <v>33.04339134596609</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.75128187052411</v>
+        <v>32.5490796398039</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.62489498926691</v>
+        <v>40.43311571487386</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.4399433286634</v>
+        <v>44.42942974642683</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.47421414586822</v>
+        <v>11.65875751155392</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.25772501053081</v>
+        <v>33.42679422470469</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>31.65794290442568</v>
+        <v>41.39182849732226</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>27.07142516271151</v>
+        <v>0.5601066511362163</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.29264909253923</v>
+        <v>29.09880176002907</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.13828963711048</v>
+        <v>35.309693088732</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>26.10175237698368</v>
+        <v>4.622457496923921</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.28858543456814</v>
+        <v>23.2503932441361</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.94358125371035</v>
+        <v>28.59373566649737</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>26.35657779814957</v>
+        <v>17.36495115592408</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>31.28566444614425</v>
+        <v>32.19317768193327</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.85304275841199</v>
+        <v>5.916164229892566</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>30.13834114448132</v>
+        <v>34.45130938620623</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>30.53954449048499</v>
+        <v>40.66006047778962</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.85931583860454</v>
+        <v>9.988565289142066</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>31.54848487245499</v>
+        <v>28.61306528958819</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>31.93674183873572</v>
+        <v>33.95446238231961</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>26.06715492045448</v>
+        <v>22.72748499768358</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>34.38836738088034</v>
+        <v>37.55223419096917</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>33.93702571887913</v>
+        <v>43.03153647369158</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>34.15344764838969</v>
+        <v>42.53797923007318</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>35.90752505276191</v>
+        <v>50.42213418561489</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>35.59245727821153</v>
+        <v>54.4184220667317</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>30.42311031081959</v>
+        <v>21.64668650674827</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>31.69585833961147</v>
+        <v>43.41577431500452</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>31.99597063921242</v>
+        <v>51.38061856899987</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.13098801229205</v>
+        <v>10.5471230969119</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.22334675792704</v>
+        <v>39.08678634173697</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>32.53693558115388</v>
+        <v>45.297542021879</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>25.88678749224895</v>
+        <v>14.61123810972226</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31.32065336568968</v>
+        <v>33.24008174674697</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>32.35387884864419</v>
+        <v>38.58325695550565</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>25.96888985367624</v>
+        <v>27.35450620394506</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>36.23298776832987</v>
+        <v>42.18350192044597</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>26.78892577657038</v>
+        <v>9.682785112506913</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.14069132025962</v>
+        <v>38.21821107480884</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.07666099286483</v>
+        <v>44.42701834767895</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>25.55113523110741</v>
+        <v>13.75610061241611</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>30.69382174557833</v>
+        <v>32.38092746781201</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>30.49479554031315</v>
+        <v>37.72238296293842</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>26.28526257472103</v>
+        <v>26.4951082352514</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>33.59461329791601</v>
+        <v>41.320152920152</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>34.32381767573254</v>
+        <v>46.79950704705181</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>35.21421849476484</v>
+        <v>46.30595239393319</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>36.6446594559677</v>
+        <v>54.19012861296455</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>38.00107674049794</v>
+        <v>58.18648362295011</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.80456101483835</v>
+        <v>25.41429030207912</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.12739219884318</v>
+        <v>47.18378690778736</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.72556991839731</v>
+        <v>55.14868356739937</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>27.52936927070285</v>
+        <v>14.3144759544104</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.61264629424888</v>
+        <v>42.85442002031932</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>32.28188893519203</v>
+        <v>49.06523189567469</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.89491813023568</v>
+        <v>18.37950550889588</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>30.94865314439804</v>
+        <v>37.00867602156206</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.66041937993159</v>
+        <v>42.35190964453165</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.99593300236881</v>
+        <v>31.12286155712759</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>35.39183435850969</v>
+        <v>45.95215277870813</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.34415471180364</v>
+        <v>1.18769527579088</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>26.93651056671788</v>
+        <v>29.72246702294212</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.03145279222038</v>
+        <v>35.9315713769517</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>24.94148057120251</v>
+        <v>5.259965050347269</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>30.51132321882337</v>
+        <v>23.88419996220586</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>31.58083827558383</v>
+        <v>29.22598778807419</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>25.02024369592167</v>
+        <v>17.99818115616706</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.09323388873766</v>
+        <v>32.8227419255365</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>34.31025189652475</v>
+        <v>38.30240206375385</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>33.80902328719132</v>
+        <v>37.80792601534717</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>34.95640156609232</v>
+        <v>45.6920348536948</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.00889730785495</v>
+        <v>49.68854771363039</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.93050604786708</v>
+        <v>16.91685706563153</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.44208374083665</v>
+        <v>38.68571446823461</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>30.59782378801171</v>
+        <v>46.65098502010341</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>27.21761114510443</v>
+        <v>5.817755732389237</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.07741462509924</v>
+        <v>34.35704554338628</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>32.20880994483801</v>
+        <v>40.56815447318326</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.97199175156973</v>
+        <v>9.881739385718511</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>30.37150185771946</v>
+        <v>28.5103179215019</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.30015062013873</v>
+        <v>33.85388384296773</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.75428101453991</v>
+        <v>22.62430376828861</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>34.14790926955077</v>
+        <v>37.45311103818478</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>31.29580007916503</v>
+        <v>37.6740972424496</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.88732853754098</v>
+        <v>37.18049723410952</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>32.45606902048847</v>
+        <v>45.06729855581325</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>33.22854296334953</v>
+        <v>49.0651665383453</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>27.66475467586313</v>
+        <v>16.28896672261335</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.96526929653285</v>
+        <v>38.0651238982004</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>31.29248406807757</v>
+        <v>46.03028147491927</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.91715940415274</v>
+        <v>11.22229283534745</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.23550298799338</v>
+        <v>39.76349311373298</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>32.09518618968354</v>
+        <v>45.9748898821909</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>26.02451953478575</v>
+        <v>15.2891357597776</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>27.60889216760637</v>
+        <v>33.91982002247762</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.4759197405369</v>
+        <v>39.26367052645634</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.30130643730147</v>
+        <v>28.03497598451003</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.54900308397516</v>
+        <v>42.86544671071631</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.92171896678966</v>
+        <v>48.3470670597007</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>31.23523244123701</v>
+        <v>47.85870708449756</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.48451464158399</v>
+        <v>55.74657577156444</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35.22755552295079</v>
+        <v>59.74477492002547</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>27.66502021349256</v>
+        <v>26.96291323079635</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>30.25576817903376</v>
+        <v>48.74237811240614</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>31.82039630819574</v>
+        <v>56.70842837801087</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.11122524832357</v>
+        <v>47.66426996548359</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>35.55351721090287</v>
+        <v>47.17142432604255</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>37.37178547779709</v>
+        <v>55.05834449528033</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>37.30928135804851</v>
+        <v>59.05618633558181</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.55570181446948</v>
+        <v>26.27892316936454</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>36.82506049411311</v>
+        <v>48.05613156673457</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>36.87265678663854</v>
+        <v>56.02109915060823</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>30.7900197207866</v>
+        <v>21.21092806496251</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>32.3579850770743</v>
+        <v>49.75309650072672</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>33.26039237978888</v>
+        <v>55.96435758528543</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.36096316663663</v>
+        <v>25.27953535798083</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>33.31056492419032</v>
+        <v>43.91112752459714</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>34.36363725004014</v>
+        <v>49.25481078431034</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>27.27679104708942</v>
+        <v>38.02615008461823</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>38.19667757884301</v>
+        <v>52.85739001498718</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>38.51007168796232</v>
+        <v>58.33885881933333</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>39.8802163195917</v>
+        <v>57.85125327986868</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>40.97591103140289</v>
+        <v>65.73924081742013</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>41.19145275389678</v>
+        <v>69.7374138237754</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>32.61683533548261</v>
+        <v>36.95448876782707</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>40.59218220889049</v>
+        <v>58.73500487526673</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>41.12455670905103</v>
+        <v>66.70086513329369</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>37.27577352423448</v>
+        <v>51.43297268352598</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>33.57885331677643</v>
+        <v>50.94012951730196</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>36.18421738415677</v>
+        <v>58.82707093021379</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>37.5752749172826</v>
+        <v>62.82497990049632</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>27.42841454845887</v>
+        <v>30.04725903344792</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>36.37055848563769</v>
+        <v>51.82487624098105</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>37.13620987581524</v>
+        <v>59.78989624526384</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.07687934102358</v>
+        <v>24.97922586147906</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.35603614825681</v>
+        <v>53.52167513062938</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.97277802192539</v>
+        <v>59.732992388975</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>26.23394634621933</v>
+        <v>29.0487477691666</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>33.29614943859633</v>
+        <v>47.68066682207888</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>33.78323654156831</v>
+        <v>53.02440847810914</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>27.20929568634683</v>
+        <v>41.79545047968401</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>37.78859057521656</v>
+        <v>56.62698592877013</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>39.08392069654772</v>
+        <v>62.10850657215708</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>40.10078554430129</v>
+        <v>61.62090351772287</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>41.67461706083967</v>
+        <v>69.50891229328903</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>42.61302329025312</v>
+        <v>73.50715242866073</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.80925479834726</v>
+        <v>40.72376964604127</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>40.54731149563305</v>
+        <v>62.50469457217748</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>41.97884925740802</v>
+        <v>70.47060723707392</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>36.47797733177919</v>
+        <v>42.93423692692995</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>30.40268810048626</v>
+        <v>42.44047233728049</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.5068415355751</v>
+        <v>50.32734640640326</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>34.41471776683789</v>
+        <v>54.32541323129551</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>26.68241509092555</v>
+        <v>21.54819510783472</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.20035905079325</v>
+        <v>43.32517302786989</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>36.52057169744053</v>
+        <v>51.29056691347677</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.0168556402226</v>
+        <v>16.4817536967459</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.28775447493266</v>
+        <v>45.02354871997711</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>33.77864711704872</v>
+        <v>51.2351630523603</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>26.26200112460025</v>
+        <v>20.55022957975888</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>33.06764592141599</v>
+        <v>39.18155667286334</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.10108829926047</v>
+        <v>44.52563064517876</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>26.42117144042814</v>
+        <v>33.29614060325384</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>37.79332645447052</v>
+        <v>48.12719211891551</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>39.18042490237946</v>
+        <v>53.60901876058615</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>38.2151524929786</v>
+        <v>53.12049425392212</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>40.00860111099716</v>
+        <v>61.00843568311831</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>41.9928847019806</v>
+        <v>65.00683367294192</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.03051785981647</v>
+        <v>32.22395357910575</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>39.08915100767339</v>
+        <v>54.00423924958529</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>41.60943975893655</v>
+        <v>61.97052580281906</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.74151685636454</v>
+        <v>-16.61505894493751</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.05927621734273</v>
+        <v>11.91574544730367</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>31.01875505107597</v>
+        <v>18.12463520456203</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>27.10177262010782</v>
+        <v>-12.54799517811312</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.91210047098264</v>
+        <v>6.072714947493587</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>30.36917859243457</v>
+        <v>11.41433204831748</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>27.84868143726456</v>
+        <v>0.1890101848482075</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>33.75897846607645</v>
+        <v>15.01046497071508</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>34.00318527112084</v>
+        <v>20.4899365536897</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.33662043533246</v>
+        <v>19.99454557860015</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.95350851913547</v>
+        <v>27.87755953926985</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.79772304751669</v>
+        <v>31.8738170731279</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.55682896340153</v>
+        <v>-0.8940089155193434</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.96500541758088</v>
+        <v>20.87108126519133</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>31.42435360065283</v>
+        <v>28.83572669706798</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.46959074960097</v>
+        <v>-11.98345591151229</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>31.25642989946887</v>
+        <v>16.55186636710614</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>31.12013439964567</v>
+        <v>22.76276084773105</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>27.07642402001709</v>
+        <v>-7.924677342212981</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.00793367266343</v>
+        <v>10.70037621285685</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.67570575501503</v>
+        <v>16.04377158820382</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>27.31529055108661</v>
+        <v>4.816676264928851</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>31.44879311415441</v>
+        <v>19.64237730215888</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>30.03098332567289</v>
+        <v>-6.631101355220885</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>31.65131550043164</v>
+        <v>21.90067104173767</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.62806756256428</v>
+        <v>28.10942512887443</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>27.1932110236063</v>
+        <v>-2.562273744614963</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>32.16309306089797</v>
+        <v>16.05934414338646</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>32.31522788411313</v>
+        <v>21.40079401123791</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>27.77134356832491</v>
+        <v>10.17550580272786</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>35.44565152978866</v>
+        <v>24.997729661988</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.73144164152</v>
+        <v>30.47704971012303</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>33.95992631713911</v>
+        <v>29.9824131325799</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>35.29072635325564</v>
+        <v>37.86554597526305</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>35.26871706028827</v>
+        <v>41.86177736792428</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.68646093641589</v>
+        <v>9.092888114977718</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.21356238946838</v>
+        <v>30.85902933308291</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.52219440664333</v>
+        <v>38.82348477543832</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>30.05819487768164</v>
+        <v>-1.997471302995727</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>32.1414142491786</v>
+        <v>26.53881905182249</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>32.32533081703012</v>
+        <v>32.74957791235199</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>26.86082222878603</v>
+        <v>2.063071297360302</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.02114508168231</v>
+        <v>20.68903268600804</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.77901422871323</v>
+        <v>26.0322608788826</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>27.15205083015011</v>
+        <v>14.80519927117854</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>34.9333494270903</v>
+        <v>29.63166944751635</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.89873801150496</v>
+        <v>-2.864896685146213</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.52757677239302</v>
+        <v>25.66715650559031</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>30.44382603331134</v>
+        <v>31.87596677408448</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>27.02802119463529</v>
+        <v>1.204845305816498</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.73445779160478</v>
+        <v>19.82679003393577</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>31.41843876515151</v>
+        <v>25.16829830373963</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.13519427886743</v>
+        <v>13.94271274812053</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.05067981691852</v>
+        <v>28.76523208476505</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.52047199482436</v>
+        <v>34.24460397668708</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>35.84354460241946</v>
+        <v>33.74996999497575</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.51806504157466</v>
+        <v>41.63312410230248</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>38.30041322106139</v>
+        <v>45.62942262343967</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.58341345084842</v>
+        <v>12.86007563785149</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>30.15558202678958</v>
+        <v>34.62662563549299</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>31.25664842789453</v>
+        <v>42.59113348332455</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.88588028056282</v>
+        <v>1.769465271608915</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.89874680615721</v>
+        <v>30.30603643527713</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>32.18107151414575</v>
+        <v>36.51685149128361</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>26.94873059543113</v>
+        <v>5.830922353127853</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>31.32815808136503</v>
+        <v>24.45721060294404</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>32.10621595744028</v>
+        <v>29.80049720948688</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.10984245114704</v>
+        <v>18.57313826197771</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.19965580986507</v>
+        <v>33.39990392900786</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>27.53636412250948</v>
+        <v>-11.35927610635911</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.46260983733215</v>
+        <v>17.17212290476147</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>30.41884193233019</v>
+        <v>23.38123021844246</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>26.67054975078748</v>
+        <v>-7.290579773106565</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>31.90826832868655</v>
+        <v>11.33077304267687</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>32.89128867537067</v>
+        <v>16.67261360310437</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>26.86462754090655</v>
+        <v>5.446496206204252</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.07399462489171</v>
+        <v>20.26853165555924</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>35.80662979435168</v>
+        <v>25.74820952153659</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>34.94810590657131</v>
+        <v>25.25265422239392</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>36.0167312132488</v>
+        <v>33.13574094095697</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.07151803525458</v>
+        <v>37.13219729921281</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>27.58520080882628</v>
+        <v>4.363352968348131</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.87028012387709</v>
+        <v>26.12926379087032</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>31.26932713880657</v>
+        <v>34.09414549007028</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.38220402405781</v>
+        <v>-6.726544487894834</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>31.43670233245367</v>
+        <v>21.80937245659863</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.0959867510244</v>
+        <v>28.02048453094</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.98125313234524</v>
+        <v>-2.666133239924584</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>30.90716625260775</v>
+        <v>15.95956306414343</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>32.13136708162642</v>
+        <v>21.30318192916054</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>26.9008873258281</v>
+        <v>10.07529105691192</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.32555048820781</v>
+        <v>24.90157280064961</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>31.52209513370071</v>
+        <v>25.12331485610134</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.36787870647823</v>
+        <v>24.62863512757105</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>32.37786950406489</v>
+        <v>32.51441428007008</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.75054252162061</v>
+        <v>36.5122258238767</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.38433512717266</v>
+        <v>3.738872303775175</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.5033774713908</v>
+        <v>25.51208250672</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.51525562848967</v>
+        <v>33.47685168272341</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.84891033553667</v>
+        <v>-1.318623925950241</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.70154765972689</v>
+        <v>27.21920352777301</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>32.32956749640075</v>
+        <v>33.4306034966125</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.08027577272976</v>
+        <v>2.744646148699367</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.54627646886207</v>
+        <v>21.37244823114572</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.34879532705962</v>
+        <v>26.71635174155774</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.39960788137159</v>
+        <v>15.48934641304408</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.08519948282246</v>
+        <v>30.31729170142382</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.24843040843282</v>
+        <v>35.79893005140634</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>31.33067872067897</v>
+        <v>35.30948974852408</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>33.92360371325577</v>
+        <v>43.19633624722889</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>34.5891653278991</v>
+        <v>47.1944789801857</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.30310303956993</v>
+        <v>14.41546368349527</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>30.66090165010253</v>
+        <v>36.1919815450014</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.91283685341522</v>
+        <v>44.15764338552089</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>35.10379157211929</v>
+        <v>35.11245551535291</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>34.85263318817442</v>
+        <v>34.61853009083126</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>36.23449098756377</v>
+        <v>42.5044280920011</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>36.3578566895291</v>
+        <v>46.50221350297017</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>30.62663120216702</v>
+        <v>13.72779669312178</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.00325296687711</v>
+        <v>35.50205806020023</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.10871478344676</v>
+        <v>43.46663727249149</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>31.11033759373044</v>
+        <v>8.668979471384155</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>32.17041433427364</v>
+        <v>37.20777502226731</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>32.72721111958901</v>
+        <v>43.41903933566625</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>27.25826037739423</v>
+        <v>12.73401377821592</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>32.80659091810596</v>
+        <v>31.36272370832359</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>33.37700240901559</v>
+        <v>36.70646000577239</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>27.96949868600568</v>
+        <v>25.47948847604079</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>36.83431555137907</v>
+        <v>40.30820291712764</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>37.10707852179136</v>
+        <v>45.78968975171455</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>38.20926935460604</v>
+        <v>45.30100381971369</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>38.8235834523441</v>
+        <v>53.1879691701135</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>38.91770702120768</v>
+        <v>57.18608577029699</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>32.50890798729426</v>
+        <v>24.40600716776334</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>38.57223615353977</v>
+        <v>46.18357619703097</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>38.80859664753713</v>
+        <v>54.1490480591337</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>35.82465506314464</v>
+        <v>38.88074185649209</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>33.83496195583655</v>
+        <v>38.38681891015887</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>35.51739418415728</v>
+        <v>46.27273815629707</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>36.52057195814856</v>
+        <v>50.27059069684498</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.98363002521137</v>
+        <v>17.49571621438378</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.67038597088138</v>
+        <v>39.27038637375808</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.02303482185683</v>
+        <v>47.23501800597302</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.52043353942551</v>
+        <v>12.43686094952643</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.59636396609574</v>
+        <v>40.97593732186278</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>32.66750467365703</v>
+        <v>47.18725780936058</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>27.23259277761874</v>
+        <v>16.50280981109808</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.9320032138971</v>
+        <v>35.13184661289194</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>32.94908974342187</v>
+        <v>40.47564130604923</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.06002460301019</v>
+        <v>29.24837247350883</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>37.05178171521676</v>
+        <v>44.07738241916406</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>37.24839364585647</v>
+        <v>49.55892109272845</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>38.88129947821452</v>
+        <v>49.07023765053709</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>39.53079886408182</v>
+        <v>56.95722423999559</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>40.11026691474488</v>
+        <v>60.95540796870768</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.09482799786067</v>
+        <v>28.17487166819019</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>38.90310564906029</v>
+        <v>49.95284949843876</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>39.28275436292792</v>
+        <v>57.91837376693929</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>35.64303935186475</v>
+        <v>30.38271667487124</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>31.33082870980034</v>
+        <v>29.88787238305333</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>33.07452873774555</v>
+        <v>37.77372427758684</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>34.54929662641264</v>
+        <v>41.77173465970902</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.14079056836486</v>
+        <v>8.997362902540949</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>35.42893624880319</v>
+        <v>30.77139380243541</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.23326968570944</v>
+        <v>38.73639927553763</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.04868389098299</v>
+        <v>3.940099214371635</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>32.54903418279583</v>
+        <v>32.47852137647767</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>33.28632990788397</v>
+        <v>38.69013890194373</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>27.22376570286566</v>
+        <v>8.005002118568832</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>32.82066347571827</v>
+        <v>26.63344699163651</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>33.29638480309919</v>
+        <v>31.97757396112065</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>27.31179597780619</v>
+        <v>20.74977314757252</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>36.85328294365663</v>
+        <v>35.57829918829686</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>37.34112155193286</v>
+        <v>41.06014382288976</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>37.21882871921085</v>
+        <v>40.57053900646901</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>38.32139158342296</v>
+        <v>48.45745824181331</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>39.16101716372764</v>
+        <v>52.45579981204964</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.60483627571913</v>
+        <v>19.67576618194216</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>37.09303778785738</v>
+        <v>41.45310478469373</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>38.76685543522245</v>
+        <v>49.41900290082271</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.35774533967346</v>
+        <v>-1.963580602249799</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.35774533967346</v>
+        <v>26.57008336630719</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31.35774533967346</v>
+        <v>32.77895436635919</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.35774533967346</v>
+        <v>2.10812342714889</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>31.35774533967346</v>
+        <v>20.73130345486306</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.35774533967346</v>
+        <v>26.0728835484228</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.35774533967346</v>
+        <v>14.8456317050447</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>31.35774533967346</v>
+        <v>29.66926581127263</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.35774533967346</v>
+        <v>35.14872589842589</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>31.35774533967346</v>
+        <v>34.65457834336423</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.35774533967346</v>
+        <v>42.5384134949224</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>31.35774533967346</v>
+        <v>46.53472881348541</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>31.35774533967346</v>
+        <v>13.76478483271871</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>31.35774533967346</v>
+        <v>35.53233689997837</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>31.35774533967346</v>
+        <v>43.49742577455203</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.35774533967346</v>
+        <v>2.662889258473975</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.35774533967346</v>
+        <v>31.20107109706266</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>31.35774533967346</v>
+        <v>37.41194659838374</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>31.35774533967346</v>
+        <v>6.726307078433088</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>31.35774533967346</v>
+        <v>25.35383052223262</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>31.35774533967346</v>
+        <v>30.69718865362024</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>31.35774533967346</v>
+        <v>19.46816324708693</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>31.35774533967346</v>
+        <v>34.296043694807</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>31.35774533967346</v>
+        <v>8.021389665149577</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.35774533967346</v>
+        <v>36.55602168371428</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.35774533967346</v>
+        <v>42.76475698600684</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.35774533967346</v>
+        <v>12.09485766980112</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.35774533967346</v>
+        <v>30.71894550086035</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>31.35774533967346</v>
+        <v>36.06035833180415</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.35774533967346</v>
+        <v>24.8331401917846</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>31.35774533967346</v>
+        <v>39.65754341099427</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>31.35774533967346</v>
+        <v>45.13685193577289</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>31.35774533967346</v>
+        <v>44.64345883584731</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>31.35774533967346</v>
+        <v>52.52741286320299</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>31.35774533967346</v>
+        <v>56.52370203306925</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>31.35774533967346</v>
+        <v>23.75269474191823</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>31.35774533967346</v>
+        <v>45.52129788639417</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>31.35774533967346</v>
+        <v>53.48619674462424</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>31.35774533967346</v>
+        <v>12.64988661657419</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.35774533967346</v>
+        <v>41.18903657667597</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>31.35774533967346</v>
+        <v>47.39977643049026</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>31.35774533967346</v>
+        <v>16.71506859892879</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.35774533967346</v>
+        <v>35.34349991736401</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>31.35774533967346</v>
+        <v>40.68669083690788</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>31.35774533967346</v>
+        <v>29.45769919446634</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>31.35774533967346</v>
+        <v>44.28634882086505</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.35774533967346</v>
+        <v>11.78798857896715</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.35774533967346</v>
+        <v>40.32290139993354</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.35774533967346</v>
+        <v>46.5316928840594</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>31.35774533967346</v>
+        <v>15.86237101107185</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.35774533967346</v>
+        <v>34.48678569283965</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>31.35774533967346</v>
+        <v>39.82825692652677</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>31.35774533967346</v>
+        <v>28.60074145141079</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>31.35774533967346</v>
+        <v>43.42544015902849</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>31.35774533967346</v>
+        <v>48.90480052800826</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>31.35774533967346</v>
+        <v>48.41141001505259</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>31.35774533967346</v>
+        <v>56.29538530610029</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.35774533967346</v>
+        <v>60.29174160434793</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>31.35774533967346</v>
+        <v>27.52027655613296</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>31.35774533967346</v>
+        <v>49.28928849200731</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>31.35774533967346</v>
+        <v>57.25423975662881</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.35774533967346</v>
+        <v>16.41721751772008</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.35774533967346</v>
+        <v>44.95664829537549</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>31.35774533967346</v>
+        <v>51.16744434495997</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>31.35774533967346</v>
+        <v>20.48331402823482</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>31.35774533967346</v>
+        <v>39.11207221815238</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>31.35774533967346</v>
+        <v>44.45532155235282</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>31.35774533967346</v>
+        <v>33.22603258194346</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>31.35774533967346</v>
+        <v>48.0549777103417</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.35774533967346</v>
+        <v>3.292917517401925</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>31.35774533967346</v>
+        <v>31.82717613343807</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>31.35774533967346</v>
+        <v>38.03626469822888</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.35774533967346</v>
+        <v>7.366254221857339</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.35774533967346</v>
+        <v>25.99007697043641</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>31.35774533967346</v>
+        <v>31.33188053379167</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>31.35774533967346</v>
+        <v>20.10383315637177</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>31.35774533967346</v>
+        <v>34.9280479564896</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>31.35774533967346</v>
+        <v>40.40771433541904</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>31.35774533967346</v>
+        <v>39.91340243203212</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>31.35774533967346</v>
+        <v>47.79731034654476</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>31.35774533967346</v>
+        <v>51.79382449184795</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>31.35774533967346</v>
+        <v>19.02286210982317</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>31.35774533967346</v>
+        <v>40.7912348530685</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>31.35774533967346</v>
+        <v>48.75656000873762</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>31.35774533967346</v>
+        <v>7.920516095650051</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.35774533967346</v>
+        <v>36.45929262868317</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>31.35774533967346</v>
+        <v>42.67038573207191</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>31.35774533967346</v>
+        <v>11.98556670246564</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>31.35774533967346</v>
+        <v>30.61373292590935</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>31.35774533967346</v>
+        <v>35.95731455732113</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>31.35774533967346</v>
+        <v>24.72749360185077</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>31.35774533967346</v>
+        <v>39.55595478655625</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>31.35774533967346</v>
+        <v>39.77696946445116</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>31.35774533967346</v>
+        <v>39.28353368602945</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>31.35774533967346</v>
+        <v>47.17013401666515</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.35774533967346</v>
+        <v>51.16800325812057</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>31.35774533967346</v>
+        <v>18.39253183605451</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.35774533967346</v>
+        <v>40.16820418808977</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.35774533967346</v>
+        <v>48.1334163010626</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>31.35774533967346</v>
+        <v>13.32495047695767</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.35774533967346</v>
+        <v>41.8656374672666</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>31.35774533967346</v>
+        <v>48.07701836567987</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>31.35774533967346</v>
+        <v>17.39286045067792</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.35774533967346</v>
+        <v>36.02313238319363</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>31.35774533967346</v>
+        <v>41.36699855447223</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.35774533967346</v>
+        <v>30.13806313041557</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.35774533967346</v>
+        <v>44.96818775387903</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>31.35774533967346</v>
+        <v>50.44981427258478</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>31.35774533967346</v>
+        <v>49.96161855051304</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.35774533967346</v>
+        <v>57.84928624230947</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>31.35774533967346</v>
+        <v>61.84748663578791</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.35774533967346</v>
+        <v>29.06635341193664</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>31.35774533967346</v>
+        <v>50.84533344184303</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.35774533967346</v>
+        <v>58.81143822105839</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.35774533967346</v>
+        <v>49.76712307640577</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>31.35774533967346</v>
+        <v>49.27444165986225</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>31.35774533967346</v>
+        <v>57.16116083323602</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.35774533967346</v>
+        <v>61.15900393423869</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>31.35774533967346</v>
+        <v>28.38246917603949</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>31.35774533967346</v>
+        <v>50.15919273203207</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.35774533967346</v>
+        <v>58.12421485426189</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.35774533967346</v>
+        <v>23.31356658184252</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>31.35774533967346</v>
+        <v>51.85522171468023</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>31.35774533967346</v>
+        <v>58.06646693020145</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.35774533967346</v>
+        <v>27.38324091912586</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>31.35774533967346</v>
+        <v>46.01442074036351</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>31.35774533967346</v>
+        <v>51.3581196692523</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>31.35774533967346</v>
+        <v>40.12921809258814</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>31.35774533967346</v>
+        <v>54.96011190824579</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>31.35774533967346</v>
+        <v>60.44158688382408</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>31.35774533967346</v>
+        <v>59.95414559060936</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>31.35774533967346</v>
+        <v>67.84193212813324</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>31.35774533967346</v>
+        <v>71.84010638114677</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.35774533967346</v>
+        <v>39.05790980534841</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>31.35774533967346</v>
+        <v>60.83794104329611</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>31.35774533967346</v>
+        <v>68.80385581690888</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>31.35774533967346</v>
+        <v>53.5358038260385</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>31.35774533967346</v>
+        <v>53.04312487849183</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>31.35774533967346</v>
+        <v>60.92986529580919</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>31.35774533967346</v>
+        <v>64.92777552643719</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>31.35774533967346</v>
+        <v>32.15078307120593</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>31.35774533967346</v>
+        <v>53.92791543133075</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.35774533967346</v>
+        <v>61.8929899746616</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>31.35774533967346</v>
+        <v>27.08184240761143</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>31.35774533967346</v>
+        <v>55.62377837060598</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>31.35774533967346</v>
+        <v>61.83507976053347</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>31.35774533967346</v>
+        <v>31.15243134670374</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>31.35774533967346</v>
+        <v>49.78393805002435</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>31.35774533967346</v>
+        <v>55.12769537566323</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>31.35774533967346</v>
+        <v>43.89849650797641</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>31.35774533967346</v>
+        <v>58.72968583943038</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>31.35774533967346</v>
+        <v>64.21121265445316</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>31.35774533967346</v>
+        <v>63.72377384169153</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.35774533967346</v>
+        <v>71.61158161733243</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>31.35774533967346</v>
+        <v>75.60982299874848</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.35774533967346</v>
+        <v>42.82716870077599</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.35774533967346</v>
+        <v>64.60760875107184</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.35774533967346</v>
+        <v>72.57357593240459</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.35774533967346</v>
+        <v>45.03708688486501</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>31.35774533967346</v>
+        <v>44.54348651857124</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>31.35774533967346</v>
+        <v>52.43015959646431</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>31.35774533967346</v>
+        <v>56.42822767865193</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>31.35774533967346</v>
+        <v>23.65173796064159</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>31.35774533967346</v>
+        <v>45.42823104366966</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.35774533967346</v>
+        <v>53.39367946745126</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.35774533967346</v>
+        <v>18.58438907092393</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.35774533967346</v>
+        <v>47.12567079803961</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>31.35774533967346</v>
+        <v>53.33726926155789</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>31.35774533967346</v>
+        <v>22.6539319827079</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>31.35774533967346</v>
+        <v>41.28484673650014</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>31.35774533967346</v>
+        <v>46.62893637729253</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>31.35774533967346</v>
+        <v>35.39920546813625</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>31.35774533967346</v>
+        <v>50.22991087411328</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>31.35774533967346</v>
+        <v>55.71174368621866</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>31.35774533967346</v>
+        <v>55.22338342604468</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>31.35774533967346</v>
+        <v>63.11112385961946</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>31.35774533967346</v>
+        <v>67.10952309285045</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>31.35774533967346</v>
+        <v>34.32737147639325</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>31.35774533967346</v>
+        <v>56.10717228168944</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>31.35774533967346</v>
+        <v>64.07351335044069</v>
       </c>
     </row>
   </sheetData>
